--- a/relations/datasets/nfrs.xlsx
+++ b/relations/datasets/nfrs.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rnadorp/Documents/Prive/D3/relations/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F1438D-348F-2341-A724-826610F01ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C8C984-F5EB-1A4F-9589-D551663E0814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nodes" sheetId="1" r:id="rId1"/>
-    <sheet name="EdgesReporting" sheetId="2" r:id="rId2"/>
+    <sheet name="Links" sheetId="2" r:id="rId1"/>
+    <sheet name="Nodes" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="LOV_Name">Table1[id]</definedName>
@@ -45,12 +45,6 @@
     <t>Descr</t>
   </si>
   <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -229,6 +223,12 @@
   </si>
   <si>
     <t>Quality Criterion</t>
+  </si>
+  <si>
+    <t>ParentId</t>
+  </si>
+  <si>
+    <t>ChildId</t>
   </si>
 </sst>
 </file>
@@ -291,6 +291,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:C49" totalsRowShown="0">
+  <autoFilter ref="A1:C49" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ChildId"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ParentId" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Descr"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I50" totalsRowShown="0">
   <autoFilter ref="A1:I50" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I2">
@@ -306,18 +318,6 @@
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Location"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="OrganisationExternal"/>
     <tableColumn id="9" xr3:uid="{963D7E86-27DC-F442-94D4-70E2B264AF27}" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:C49" totalsRowShown="0">
-  <autoFilter ref="A1:C49" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Source"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Target" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Descr"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -607,14 +607,435 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
@@ -633,28 +1054,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
@@ -662,815 +1083,394 @@
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:C49"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46:A49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="3" width="21" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
